--- a/Document/wordsentenceCOUNTforENGLISH.xlsx
+++ b/Document/wordsentenceCOUNTforENGLISH.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="84">
   <si>
     <t>English1</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>ARA</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -676,7 +679,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -684,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -735,12 +738,7 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.35289999999999999</v>
-      </c>
+      <c r="C3" s="2"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:9">
@@ -2674,8 +2672,46 @@
         <v>74</v>
       </c>
     </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B74">
+        <f>SUM(B3:B73)/68</f>
+        <v>0.14609852941176471</v>
+      </c>
+      <c r="C74" s="2">
+        <f>SUM(C3:C73)/68</f>
+        <v>0.41514411764705877</v>
+      </c>
+      <c r="D74">
+        <f>SUM(D3:D73)/68</f>
+        <v>0.47712794117647078</v>
+      </c>
+      <c r="E74" s="4">
+        <f>SUM(E3:E73)/68</f>
+        <v>0.12308823529411755</v>
+      </c>
+      <c r="F74">
+        <f>SUM(F3:F73)/68</f>
+        <v>9.09151470588235</v>
+      </c>
+      <c r="G74">
+        <f>SUM(G3:G73)/68</f>
+        <v>0.30998397058823529</v>
+      </c>
+      <c r="H74">
+        <f>SUM(H3:H73)/68</f>
+        <v>0.15616617647058822</v>
+      </c>
+      <c r="I74">
+        <f>SUM(I3:I73)/68</f>
+        <v>0.24654558823529424</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2683,8 +2719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3537,7 +3573,7 @@
         <v>11</v>
       </c>
       <c r="D58" s="2">
-        <f t="shared" si="0"/>
+        <f>C58/B58</f>
         <v>0.39285714285714285</v>
       </c>
     </row>

--- a/Document/wordsentenceCOUNTforENGLISH.xlsx
+++ b/Document/wordsentenceCOUNTforENGLISH.xlsx
@@ -679,7 +679,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -689,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2677,35 +2677,35 @@
         <v>83</v>
       </c>
       <c r="B74">
-        <f>SUM(B3:B73)/68</f>
+        <f t="shared" ref="B74:I74" si="0">SUM(B3:B73)/68</f>
         <v>0.14609852941176471</v>
       </c>
       <c r="C74" s="2">
-        <f>SUM(C3:C73)/68</f>
+        <f t="shared" si="0"/>
         <v>0.41514411764705877</v>
       </c>
       <c r="D74">
-        <f>SUM(D3:D73)/68</f>
+        <f t="shared" si="0"/>
         <v>0.47712794117647078</v>
       </c>
       <c r="E74" s="4">
-        <f>SUM(E3:E73)/68</f>
+        <f t="shared" si="0"/>
         <v>0.12308823529411755</v>
       </c>
       <c r="F74">
-        <f>SUM(F3:F73)/68</f>
+        <f t="shared" si="0"/>
         <v>9.09151470588235</v>
       </c>
       <c r="G74">
-        <f>SUM(G3:G73)/68</f>
+        <f t="shared" si="0"/>
         <v>0.30998397058823529</v>
       </c>
       <c r="H74">
-        <f>SUM(H3:H73)/68</f>
+        <f t="shared" si="0"/>
         <v>0.15616617647058822</v>
       </c>
       <c r="I74">
-        <f>SUM(I3:I73)/68</f>
+        <f t="shared" si="0"/>
         <v>0.24654558823529424</v>
       </c>
     </row>

--- a/Document/wordsentenceCOUNTforENGLISH.xlsx
+++ b/Document/wordsentenceCOUNTforENGLISH.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="85">
   <si>
     <t>English1</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -679,7 +682,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -687,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+      <selection activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2707,6 +2710,11 @@
       <c r="I74">
         <f t="shared" si="0"/>
         <v>0.24654558823529424</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="I75" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Document/wordsentenceCOUNTforENGLISH.xlsx
+++ b/Document/wordsentenceCOUNTforENGLISH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr showObjects="none"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="5385"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="5385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="85">
   <si>
     <t>English1</t>
   </si>
@@ -275,7 +275,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>s</t>
+    <t>Filename</t>
   </si>
 </sst>
 </file>
@@ -346,7 +346,31 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -425,6 +449,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:I70" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A2:I70"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Filename"/>
+    <tableColumn id="2" name="CW"/>
+    <tableColumn id="3" name="CS" dataDxfId="2"/>
+    <tableColumn id="4" name="Retention"/>
+    <tableColumn id="5" name="Cohesion" dataDxfId="1"/>
+    <tableColumn id="6" name="Coherence"/>
+    <tableColumn id="7" name="ARL"/>
+    <tableColumn id="8" name="ARS"/>
+    <tableColumn id="9" name="ARA"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -682,7 +724,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -690,20 +732,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="I75" sqref="I75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I70" sqref="A2:I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -712,6 +757,9 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>76</v>
       </c>
@@ -739,496 +787,541 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="E3" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D3">
+        <v>0.66659999999999997</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="F3">
+        <v>9.16</v>
+      </c>
+      <c r="G3">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="H3">
+        <v>0.1666</v>
+      </c>
+      <c r="I3">
+        <v>0.24990000000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>9.2499999999999999E-2</v>
+        <v>0.12620000000000001</v>
       </c>
       <c r="C4" s="2">
         <v>0.4</v>
       </c>
       <c r="D4">
-        <v>0.66659999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="E4" s="4">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="F4">
-        <v>9.16</v>
+        <v>13.9</v>
       </c>
       <c r="G4">
         <v>0.33329999999999999</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>0.1666</v>
-      </c>
-      <c r="I4">
-        <v>0.24990000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>0.12620000000000001</v>
+        <v>0.22539999999999999</v>
       </c>
       <c r="C5" s="2">
-        <v>0.4</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
+        <v>0.66659999999999997</v>
       </c>
       <c r="E5" s="4">
-        <v>0.23</v>
+        <v>0.12</v>
       </c>
       <c r="F5">
-        <v>13.9</v>
+        <v>7.03</v>
       </c>
       <c r="G5">
-        <v>0.33329999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1666</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.22539999999999999</v>
+        <v>0.24129999999999999</v>
       </c>
       <c r="C6" s="2">
-        <v>0.38100000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>0.66659999999999997</v>
+        <v>1</v>
       </c>
       <c r="E6" s="4">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
       <c r="F6">
-        <v>7.03</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="G6">
-        <v>0.3</v>
+        <v>0.41660000000000003</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="I6">
-        <v>0.15</v>
+        <v>0.37490000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.24129999999999999</v>
+        <v>0.1105</v>
       </c>
       <c r="C7" s="2">
-        <v>0.5</v>
+        <v>0.37930000000000003</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="E7" s="4">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F7">
-        <v>9.7799999999999994</v>
+        <v>10.62</v>
       </c>
       <c r="G7">
-        <v>0.41660000000000003</v>
+        <v>0.7</v>
       </c>
       <c r="H7">
-        <v>0.33329999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="I7">
-        <v>0.37490000000000001</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.1105</v>
+        <v>0.1555</v>
       </c>
       <c r="C8" s="2">
-        <v>0.37930000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>1.24</v>
+        <v>0.4</v>
       </c>
       <c r="E8" s="4">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="F8">
-        <v>10.62</v>
+        <v>10.5</v>
       </c>
       <c r="G8">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H8">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.55000000000000004</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.1555</v>
+        <v>0.17949999999999999</v>
       </c>
       <c r="C9" s="2">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="D9">
         <v>0.5</v>
       </c>
-      <c r="D9">
-        <v>0.4</v>
-      </c>
       <c r="E9" s="4">
-        <v>0.1</v>
+        <v>0.89</v>
       </c>
       <c r="F9">
-        <v>10.5</v>
+        <v>6.4</v>
       </c>
       <c r="G9">
-        <v>0.3</v>
+        <v>0.375</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I9">
-        <v>0.15</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.17949999999999999</v>
+        <v>0.15509999999999999</v>
       </c>
       <c r="C10" s="2">
-        <v>0.42859999999999998</v>
+        <v>0.3846</v>
       </c>
       <c r="D10">
-        <v>0.5</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="E10" s="4">
-        <v>0.89</v>
+        <v>0.08</v>
       </c>
       <c r="F10">
-        <v>6.4</v>
+        <v>10.8</v>
       </c>
       <c r="G10">
-        <v>0.375</v>
+        <v>0.35709999999999997</v>
       </c>
       <c r="H10">
-        <v>0.25</v>
+        <v>0.14280000000000001</v>
       </c>
       <c r="I10">
-        <v>0.3125</v>
+        <v>0.24990000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>0.15509999999999999</v>
+        <v>0.1401</v>
       </c>
       <c r="C11" s="2">
-        <v>0.3846</v>
+        <v>0.3871</v>
       </c>
       <c r="D11">
-        <v>0.28570000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="E11" s="4">
-        <v>0.08</v>
+        <v>0.22</v>
       </c>
       <c r="F11">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="G11">
-        <v>0.35709999999999997</v>
+        <v>0.3</v>
       </c>
       <c r="H11">
-        <v>0.14280000000000001</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.24990000000000001</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0.14779999999999999</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.52170000000000005</v>
+      </c>
+      <c r="D12">
+        <v>0.25</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="F12">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G12">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>4.1599999999999998E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>0.1401</v>
+        <v>9.4100000000000003E-2</v>
       </c>
       <c r="C13" s="2">
-        <v>0.3871</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="D13">
-        <v>0.6</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="E13" s="4">
-        <v>0.22</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F13">
-        <v>10.7</v>
+        <v>9.1</v>
       </c>
       <c r="G13">
-        <v>0.3</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.15</v>
+        <v>4.1599999999999998E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>0.14779999999999999</v>
+        <v>0.1646</v>
       </c>
       <c r="C14" s="2">
-        <v>0.52170000000000005</v>
+        <v>0.434</v>
       </c>
       <c r="D14">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E14" s="4">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F14">
-        <v>9.6999999999999993</v>
+        <v>11.6</v>
       </c>
       <c r="G14">
-        <v>8.3299999999999999E-2</v>
+        <v>0.35</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I14">
-        <v>4.1599999999999998E-2</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>9.4100000000000003E-2</v>
+        <v>0.1595</v>
       </c>
       <c r="C15" s="2">
-        <v>0.33329999999999999</v>
+        <v>0.52</v>
       </c>
       <c r="D15">
-        <v>0.33329999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="E15" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.05</v>
       </c>
       <c r="F15">
-        <v>9.1</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G15">
-        <v>8.3299999999999999E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.1599999999999998E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>0.1646</v>
+        <v>9.8199999999999996E-2</v>
       </c>
       <c r="C16" s="2">
-        <v>0.434</v>
+        <v>0.29409999999999997</v>
       </c>
       <c r="D16">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E16" s="4">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="F16">
-        <v>11.6</v>
+        <v>5</v>
       </c>
       <c r="G16">
-        <v>0.35</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="H16">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.45</v>
+        <v>4.1599999999999998E-2</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>0.1595</v>
+        <v>0.15540000000000001</v>
       </c>
       <c r="C17" s="2">
-        <v>0.52</v>
+        <v>0.45710000000000001</v>
       </c>
       <c r="D17">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E17" s="4">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F17">
-        <v>10.199999999999999</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="G17">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1666</v>
       </c>
       <c r="I17">
-        <v>0.05</v>
+        <v>0.20830000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>9.8199999999999996E-2</v>
+        <v>0.15079999999999999</v>
       </c>
       <c r="C18" s="2">
-        <v>0.29409999999999997</v>
+        <v>0.44829999999999998</v>
       </c>
       <c r="D18">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E18" s="4">
-        <v>0.05</v>
+        <v>0.17</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>9.6</v>
       </c>
       <c r="G18">
-        <v>8.3299999999999999E-2</v>
+        <v>3.5709999999999999E-2</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="I18">
-        <v>4.1599999999999998E-2</v>
+        <v>0.32140000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>0.15540000000000001</v>
+        <v>0.17380000000000001</v>
       </c>
       <c r="C19" s="2">
-        <v>0.45710000000000001</v>
+        <v>0.3488</v>
       </c>
       <c r="D19">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="E19" s="4">
         <v>0.1</v>
       </c>
       <c r="F19">
-        <v>8.8000000000000007</v>
+        <v>12.2</v>
       </c>
       <c r="G19">
-        <v>0.25</v>
+        <v>0.42849999999999999</v>
       </c>
       <c r="H19">
-        <v>0.1666</v>
+        <v>0.14280000000000001</v>
       </c>
       <c r="I19">
-        <v>0.20830000000000001</v>
+        <v>0.28560000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>0.15079999999999999</v>
+        <v>0.152</v>
       </c>
       <c r="C20" s="2">
-        <v>0.44829999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E20" s="4">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="F20">
-        <v>9.6</v>
+        <v>8.5</v>
       </c>
       <c r="G20">
-        <v>3.5709999999999999E-2</v>
+        <v>0.25</v>
       </c>
       <c r="H20">
-        <v>0.28570000000000001</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.32140000000000002</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>0.17380000000000001</v>
+        <v>0.16969999999999999</v>
       </c>
       <c r="C21" s="2">
-        <v>0.3488</v>
+        <v>0.37930000000000003</v>
       </c>
       <c r="D21">
         <v>0.8</v>
       </c>
       <c r="E21" s="4">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F21">
         <v>12.2</v>
@@ -1237,1489 +1330,1418 @@
         <v>0.42849999999999999</v>
       </c>
       <c r="H21">
-        <v>0.14280000000000001</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="I21">
-        <v>0.28560000000000002</v>
+        <v>0.35709999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>0.152</v>
+        <v>0.19359999999999999</v>
       </c>
       <c r="C22" s="2">
-        <v>0.5</v>
+        <v>0.57579999999999998</v>
       </c>
       <c r="D22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E22" s="4">
         <v>0.02</v>
       </c>
       <c r="F22">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
       <c r="G22">
-        <v>0.25</v>
+        <v>0.66659999999999997</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I22">
-        <v>0.125</v>
+        <v>0.58330000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>0.16969999999999999</v>
+        <v>0.1389</v>
       </c>
       <c r="C23" s="2">
-        <v>0.37930000000000003</v>
+        <v>0.35709999999999997</v>
       </c>
       <c r="D23">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="E23" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="F23">
-        <v>12.2</v>
+        <v>11.3</v>
       </c>
       <c r="G23">
-        <v>0.42849999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="H23">
-        <v>0.28570000000000001</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.35709999999999997</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B24">
-        <v>0.19359999999999999</v>
+        <v>0.12039999999999999</v>
       </c>
       <c r="C24" s="2">
-        <v>0.57579999999999998</v>
+        <v>0.51849999999999996</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="4">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F24">
-        <v>12.5</v>
+        <v>6.9</v>
       </c>
       <c r="G24">
-        <v>0.66659999999999997</v>
+        <v>0.1666</v>
       </c>
       <c r="H24">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.58330000000000004</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.1389</v>
+        <v>0.13389999999999999</v>
       </c>
       <c r="C25" s="2">
-        <v>0.35709999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="D25">
-        <v>0.4</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="E25" s="4">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="F25">
-        <v>11.3</v>
+        <v>10</v>
       </c>
       <c r="G25">
-        <v>0.3</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.14280000000000001</v>
       </c>
       <c r="I25">
-        <v>0.15</v>
+        <v>0.2142</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.12039999999999999</v>
+        <v>0.15260000000000001</v>
       </c>
       <c r="C26" s="2">
-        <v>0.51849999999999996</v>
+        <v>0.44440000000000002</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E26" s="4">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F26">
-        <v>6.9</v>
+        <v>12.1</v>
       </c>
       <c r="G26">
-        <v>0.1666</v>
+        <v>0.57140000000000002</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>0.42849999999999999</v>
       </c>
       <c r="I26">
-        <v>8.3299999999999999E-2</v>
+        <v>0.49990000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>0.1867</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.36359999999999998</v>
+      </c>
+      <c r="D27">
+        <v>0.2</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="F27">
+        <v>4.7</v>
+      </c>
+      <c r="G27">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="H27">
+        <v>0.1666</v>
+      </c>
+      <c r="I27">
+        <v>0.49990000000000001</v>
+      </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.13389999999999999</v>
+        <v>0.12740000000000001</v>
       </c>
       <c r="C28" s="2">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="D28">
         <v>0.5</v>
       </c>
-      <c r="D28">
-        <v>0.33329999999999999</v>
-      </c>
       <c r="E28" s="4">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="F28">
-        <v>10</v>
+        <v>10.4</v>
       </c>
       <c r="G28">
         <v>0.28570000000000001</v>
       </c>
       <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
         <v>0.14280000000000001</v>
-      </c>
-      <c r="I28">
-        <v>0.2142</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.15260000000000001</v>
+        <v>0.1323</v>
       </c>
       <c r="C29" s="2">
-        <v>0.44440000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="D29">
-        <v>0.6</v>
+        <v>0.83330000000000004</v>
       </c>
       <c r="E29" s="4">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F29">
-        <v>12.1</v>
+        <v>10.9</v>
       </c>
       <c r="G29">
-        <v>0.57140000000000002</v>
+        <v>0.375</v>
       </c>
       <c r="H29">
-        <v>0.42849999999999999</v>
+        <v>0.125</v>
       </c>
       <c r="I29">
-        <v>0.49990000000000001</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.1867</v>
+        <v>0.17949999999999999</v>
       </c>
       <c r="C30" s="2">
-        <v>0.36359999999999998</v>
+        <v>0.40479999999999999</v>
       </c>
       <c r="D30">
-        <v>0.2</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="E30" s="4">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F30">
-        <v>4.7</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="G30">
-        <v>0.33329999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="H30">
-        <v>0.1666</v>
+        <v>0.25</v>
       </c>
       <c r="I30">
-        <v>0.49990000000000001</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.12740000000000001</v>
+        <v>0.1477</v>
       </c>
       <c r="C31" s="2">
-        <v>0.35709999999999997</v>
+        <v>0.42859999999999998</v>
       </c>
       <c r="D31">
         <v>0.5</v>
       </c>
       <c r="E31" s="4">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F31">
-        <v>10.4</v>
+        <v>9.6</v>
       </c>
       <c r="G31">
-        <v>0.28570000000000001</v>
+        <v>0.1666</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>0.14280000000000001</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.1323</v>
+        <v>0.22040000000000001</v>
       </c>
       <c r="C32" s="2">
-        <v>0.5</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="D32">
-        <v>0.83330000000000004</v>
+        <v>0.57140000000000002</v>
       </c>
       <c r="E32" s="4">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F32">
-        <v>10.9</v>
+        <v>12.1</v>
       </c>
       <c r="G32">
-        <v>0.375</v>
+        <v>0.44440000000000002</v>
       </c>
       <c r="H32">
-        <v>0.125</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="I32">
-        <v>0.25</v>
+        <v>0.38879999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.17949999999999999</v>
+        <v>0.16339999999999999</v>
       </c>
       <c r="C33" s="2">
-        <v>0.40479999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="D33">
-        <v>0.85709999999999997</v>
+        <v>0.6</v>
       </c>
       <c r="E33" s="4">
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
       <c r="F33">
-        <v>9.8000000000000007</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="G33">
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
       <c r="H33">
-        <v>0.25</v>
+        <v>0.1666</v>
       </c>
       <c r="I33">
-        <v>0.3125</v>
+        <v>0.20830000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.1477</v>
+        <v>0.1173</v>
       </c>
       <c r="C34" s="2">
-        <v>0.42859999999999998</v>
+        <v>0.46150000000000002</v>
       </c>
       <c r="D34">
+        <v>0.6</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="F34">
+        <v>12.3</v>
+      </c>
+      <c r="G34">
         <v>0.5</v>
       </c>
-      <c r="E34" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="F34">
-        <v>9.6</v>
-      </c>
-      <c r="G34">
-        <v>0.1666</v>
-      </c>
       <c r="H34">
-        <v>0</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="I34">
-        <v>8.3299999999999999E-2</v>
+        <v>0.83330000000000004</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.22040000000000001</v>
+        <v>0.16270000000000001</v>
       </c>
       <c r="C35" s="2">
-        <v>0.66669999999999996</v>
+        <v>0.45450000000000002</v>
       </c>
       <c r="D35">
-        <v>0.57140000000000002</v>
+        <v>0</v>
       </c>
       <c r="E35" s="4">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F35">
-        <v>12.1</v>
+        <v>8.9</v>
       </c>
       <c r="G35">
-        <v>0.44440000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="H35">
-        <v>0.33329999999999999</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>0.38879999999999998</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.16339999999999999</v>
+        <v>0.18590000000000001</v>
       </c>
       <c r="C36" s="2">
-        <v>0.375</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="D36">
-        <v>0.6</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="E36" s="4">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="F36">
-        <v>9.3000000000000007</v>
+        <v>10.62</v>
       </c>
       <c r="G36">
-        <v>0.25</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="H36">
-        <v>0.1666</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="I36">
-        <v>0.20830000000000001</v>
+        <v>0.33329999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0.1173</v>
+        <v>0.1389</v>
       </c>
       <c r="C37" s="2">
-        <v>0.46150000000000002</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="D37">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="E37" s="4">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="F37">
-        <v>12.3</v>
+        <v>8.02</v>
       </c>
       <c r="G37">
-        <v>0.5</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="H37">
-        <v>0.33329999999999999</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>0.83330000000000004</v>
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.16270000000000001</v>
+        <v>0.15160000000000001</v>
       </c>
       <c r="C38" s="2">
-        <v>0.45450000000000002</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E38" s="4">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F38">
-        <v>8.9</v>
+        <v>9.7899999999999991</v>
       </c>
       <c r="G38">
-        <v>0.25</v>
+        <v>0.1666</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>0.1666</v>
       </c>
       <c r="I38">
-        <v>0.125</v>
+        <v>0.1666</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.18590000000000001</v>
+        <v>0.13339999999999999</v>
       </c>
       <c r="C39" s="2">
-        <v>0.33329999999999999</v>
+        <v>0.41830000000000001</v>
       </c>
       <c r="D39">
-        <v>0.33329999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="E39" s="4">
         <v>0.02</v>
       </c>
       <c r="F39">
-        <v>10.62</v>
+        <v>8.27</v>
       </c>
       <c r="G39">
-        <v>0.33329999999999999</v>
+        <v>0.41660000000000003</v>
       </c>
       <c r="H39">
         <v>0.33329999999999999</v>
       </c>
       <c r="I39">
-        <v>0.33329999999999999</v>
+        <v>0.37490000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.1389</v>
+        <v>8.8599999999999998E-2</v>
       </c>
       <c r="C40" s="2">
-        <v>0.66669999999999996</v>
+        <v>0.375</v>
       </c>
       <c r="D40">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="E40" s="4">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="F40">
-        <v>8.02</v>
+        <v>3.43</v>
       </c>
       <c r="G40">
-        <v>8.3299999999999999E-2</v>
+        <v>0.5</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I40">
-        <v>4.1000000000000002E-2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.15160000000000001</v>
+        <v>0.1114</v>
       </c>
       <c r="C41" s="2">
+        <v>0.29409999999999997</v>
+      </c>
+      <c r="D41">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D41">
-        <v>0.8</v>
-      </c>
       <c r="E41" s="4">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F41">
-        <v>9.7899999999999991</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="G41">
-        <v>0.1666</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>0.1666</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>0.1666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>0.13339999999999999</v>
+        <v>0.1517</v>
       </c>
       <c r="C42" s="2">
-        <v>0.41830000000000001</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="D42">
-        <v>0.3</v>
+        <v>0.375</v>
       </c>
       <c r="E42" s="4">
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
       <c r="F42">
-        <v>8.27</v>
+        <v>7.51</v>
       </c>
       <c r="G42">
-        <v>0.41660000000000003</v>
+        <v>0.4</v>
       </c>
       <c r="H42">
-        <v>0.33329999999999999</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>0.37490000000000001</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>8.8599999999999998E-2</v>
+        <v>0.1522</v>
       </c>
       <c r="C43" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D43">
+        <v>0.5</v>
+      </c>
+      <c r="E43" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F43">
+        <v>8.67</v>
+      </c>
+      <c r="G43">
         <v>0.375</v>
       </c>
-      <c r="D43">
+      <c r="H43">
         <v>0.25</v>
       </c>
-      <c r="E43" s="4">
-        <v>0.23</v>
-      </c>
-      <c r="F43">
-        <v>3.43</v>
-      </c>
-      <c r="G43">
-        <v>0.5</v>
-      </c>
-      <c r="H43">
-        <v>0.5</v>
-      </c>
       <c r="I43">
-        <v>0.5</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1114</v>
+        <v>0.16750000000000001</v>
       </c>
       <c r="C44" s="2">
-        <v>0.29409999999999997</v>
+        <v>0.48</v>
       </c>
       <c r="D44">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="F44">
+        <v>8.67</v>
+      </c>
+      <c r="G44">
         <v>0.33329999999999999</v>
       </c>
-      <c r="E44" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="F44">
-        <v>8.0299999999999994</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
       <c r="H44">
-        <v>0</v>
+        <v>0.1666</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>0.24990000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0.1517</v>
+        <v>0.1159</v>
       </c>
       <c r="C45" s="2">
-        <v>0.42499999999999999</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="D45">
+        <v>0.5</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="F45">
+        <v>11.27</v>
+      </c>
+      <c r="G45">
         <v>0.375</v>
       </c>
-      <c r="E45" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="F45">
-        <v>7.51</v>
-      </c>
-      <c r="G45">
-        <v>0.4</v>
-      </c>
       <c r="H45">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I45">
-        <v>0.2</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.1522</v>
+        <v>0.13150000000000001</v>
       </c>
       <c r="C46" s="2">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D46">
+        <v>0.2</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="F46">
+        <v>6.59</v>
+      </c>
+      <c r="G46">
         <v>0.5</v>
-      </c>
-      <c r="E46" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F46">
-        <v>8.67</v>
-      </c>
-      <c r="G46">
-        <v>0.375</v>
       </c>
       <c r="H46">
         <v>0.25</v>
       </c>
       <c r="I46">
-        <v>0.3125</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.16750000000000001</v>
+        <v>0.1789</v>
       </c>
       <c r="C47" s="2">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="D47">
-        <v>0.22220000000000001</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="E47" s="4">
-        <v>0.08</v>
+        <v>0.68</v>
       </c>
       <c r="F47">
-        <v>8.67</v>
+        <v>5.31</v>
       </c>
       <c r="G47">
-        <v>0.33329999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="H47">
-        <v>0.1666</v>
+        <v>0.25</v>
       </c>
       <c r="I47">
-        <v>0.24990000000000001</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.1159</v>
+        <v>0.1464</v>
       </c>
       <c r="C48" s="2">
-        <v>0.28570000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="D48">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E48" s="4">
         <v>0.02</v>
       </c>
       <c r="F48">
-        <v>11.27</v>
+        <v>11.083</v>
       </c>
       <c r="G48">
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
       <c r="H48">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>0.3125</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.13150000000000001</v>
+        <v>0.13489999999999999</v>
       </c>
       <c r="C49" s="2">
-        <v>0.5</v>
+        <v>0.1048</v>
       </c>
       <c r="D49">
-        <v>0.2</v>
+        <v>0.625</v>
       </c>
       <c r="E49" s="4">
         <v>0.02</v>
       </c>
       <c r="F49">
-        <v>6.59</v>
+        <v>7.65</v>
       </c>
       <c r="G49">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H49">
         <v>0.25</v>
       </c>
       <c r="I49">
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.1789</v>
+        <v>0.14360000000000001</v>
       </c>
       <c r="C50" s="2">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="D50">
-        <v>0.28570000000000001</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="E50" s="4">
-        <v>0.68</v>
+        <v>0.02</v>
       </c>
       <c r="F50">
-        <v>5.31</v>
+        <v>12.07</v>
       </c>
       <c r="G50">
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
       <c r="H50">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>0.3125</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.1464</v>
+        <v>0.1588</v>
       </c>
       <c r="C51" s="2">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="D51">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F51">
+        <v>6.74</v>
+      </c>
+      <c r="G51">
+        <v>0.3</v>
+      </c>
+      <c r="H51">
+        <v>0.2</v>
+      </c>
+      <c r="I51">
         <v>0.25</v>
-      </c>
-      <c r="E51" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="F51">
-        <v>11.083</v>
-      </c>
-      <c r="G51">
-        <v>0.25</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0.125</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.13489999999999999</v>
+        <v>0.1532</v>
       </c>
       <c r="C52" s="2">
-        <v>0.1048</v>
+        <v>0.34620000000000001</v>
       </c>
       <c r="D52">
-        <v>0.625</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="E52" s="4">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="F52">
-        <v>7.65</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="G52">
-        <v>0.25</v>
+        <v>0.41660000000000003</v>
       </c>
       <c r="H52">
-        <v>0.25</v>
+        <v>0.1666</v>
       </c>
       <c r="I52">
-        <v>0.25</v>
+        <v>0.29160000000000003</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.14360000000000001</v>
+        <v>0.15970000000000001</v>
       </c>
       <c r="C53" s="2">
-        <v>0.375</v>
+        <v>0.30769999999999997</v>
       </c>
       <c r="D53">
-        <v>0.33329999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="E53" s="4">
-        <v>0.02</v>
+        <v>0.35</v>
       </c>
       <c r="F53">
-        <v>12.07</v>
+        <v>10.43</v>
       </c>
       <c r="G53">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I53">
-        <v>0.125</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.1588</v>
+        <v>0.18010000000000001</v>
       </c>
       <c r="C54" s="2">
-        <v>0.4375</v>
+        <v>0.47370000000000001</v>
       </c>
       <c r="D54">
+        <v>0.5</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="F54">
+        <v>13.69</v>
+      </c>
+      <c r="G54">
+        <v>0.41660000000000003</v>
+      </c>
+      <c r="H54">
         <v>0.33329999999999999</v>
       </c>
-      <c r="E54" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="F54">
-        <v>6.74</v>
-      </c>
-      <c r="G54">
-        <v>0.3</v>
-      </c>
-      <c r="H54">
-        <v>0.2</v>
-      </c>
       <c r="I54">
-        <v>0.25</v>
+        <v>0.2399</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1532</v>
+        <v>0.17080000000000001</v>
       </c>
       <c r="C55" s="2">
-        <v>0.34620000000000001</v>
+        <v>0.39290000000000003</v>
       </c>
       <c r="D55">
-        <v>0.33329999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="E55" s="4">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
       <c r="F55">
-        <v>4.3499999999999996</v>
+        <v>12.17</v>
       </c>
       <c r="G55">
-        <v>0.41660000000000003</v>
+        <v>0.7</v>
       </c>
       <c r="H55">
-        <v>0.1666</v>
+        <v>0.6</v>
       </c>
       <c r="I55">
-        <v>0.29160000000000003</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.15970000000000001</v>
+        <v>0.14349999999999999</v>
       </c>
       <c r="C56" s="2">
-        <v>0.30769999999999997</v>
+        <v>0.34150000000000003</v>
       </c>
       <c r="D56">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E56" s="4">
-        <v>0.35</v>
+        <v>0.13</v>
       </c>
       <c r="F56">
-        <v>10.43</v>
+        <v>8.92</v>
       </c>
       <c r="G56">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H56">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>0.18010000000000001</v>
+        <v>7.8299999999999995E-2</v>
       </c>
       <c r="C57" s="2">
-        <v>0.47370000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="D57">
-        <v>0.5</v>
+        <v>0.1666</v>
       </c>
       <c r="E57" s="4">
-        <v>0.37</v>
+        <v>0.02</v>
       </c>
       <c r="F57">
-        <v>13.69</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="G57">
-        <v>0.41660000000000003</v>
+        <v>0.14280000000000001</v>
       </c>
       <c r="H57">
-        <v>0.33329999999999999</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>0.2399</v>
+        <v>7.1400000000000005E-2</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.17080000000000001</v>
+        <v>0.1429</v>
       </c>
       <c r="C58" s="2">
-        <v>0.39290000000000003</v>
+        <v>0.53849999999999998</v>
       </c>
       <c r="D58">
         <v>0.6</v>
       </c>
       <c r="E58" s="4">
-        <v>0.02</v>
+        <v>0.54</v>
       </c>
       <c r="F58">
-        <v>12.17</v>
+        <v>6.13</v>
       </c>
       <c r="G58">
-        <v>0.7</v>
+        <v>0.375</v>
       </c>
       <c r="H58">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="I58">
-        <v>0.65</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.14349999999999999</v>
+        <v>0.17549999999999999</v>
       </c>
       <c r="C59" s="2">
-        <v>0.34150000000000003</v>
+        <v>0.44679999999999997</v>
       </c>
       <c r="D59">
+        <v>0.4</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="F59">
+        <v>12.76</v>
+      </c>
+      <c r="G59">
+        <v>0.375</v>
+      </c>
+      <c r="H59">
         <v>0.25</v>
       </c>
-      <c r="E59" s="4">
-        <v>0.13</v>
-      </c>
-      <c r="F59">
-        <v>8.92</v>
-      </c>
-      <c r="G59">
-        <v>0.1</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
       <c r="I59">
-        <v>0.05</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>7.8299999999999995E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="C60" s="2">
-        <v>0.5</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="D60">
-        <v>0.1666</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="E60" s="4">
         <v>0.02</v>
       </c>
       <c r="F60">
-        <v>9.3699999999999992</v>
+        <v>5.14</v>
       </c>
       <c r="G60">
-        <v>0.14280000000000001</v>
+        <v>0</v>
       </c>
       <c r="H60">
         <v>0</v>
       </c>
       <c r="I60">
-        <v>7.1400000000000005E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1429</v>
+        <v>0.156</v>
       </c>
       <c r="C61" s="2">
-        <v>0.53849999999999998</v>
+        <v>0.4</v>
       </c>
       <c r="D61">
-        <v>0.6</v>
+        <v>0.1666</v>
       </c>
       <c r="E61" s="4">
-        <v>0.54</v>
+        <v>0.06</v>
       </c>
       <c r="F61">
-        <v>6.13</v>
+        <v>14.66</v>
       </c>
       <c r="G61">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>0.3125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.17549999999999999</v>
+        <v>0.1525</v>
       </c>
       <c r="C62" s="2">
-        <v>0.44679999999999997</v>
+        <v>0.52170000000000005</v>
       </c>
       <c r="D62">
-        <v>0.4</v>
+        <v>0.57140000000000002</v>
       </c>
       <c r="E62" s="4">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="F62">
-        <v>12.76</v>
+        <v>7.41</v>
       </c>
       <c r="G62">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="H62">
         <v>0.25</v>
       </c>
       <c r="I62">
-        <v>0.3125</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>6.9000000000000006E-2</v>
+        <v>0.1741</v>
       </c>
       <c r="C63" s="2">
-        <v>0.28570000000000001</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="D63">
-        <v>0.33329999999999999</v>
+        <v>0.42849999999999999</v>
       </c>
       <c r="E63" s="4">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="F63">
-        <v>5.14</v>
+        <v>10.36</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>0.56259999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.156</v>
+        <v>0.186</v>
       </c>
       <c r="C64" s="2">
-        <v>0.4</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="D64">
-        <v>0.1666</v>
+        <v>0.75</v>
       </c>
       <c r="E64" s="4">
-        <v>0.06</v>
+        <v>0.17</v>
       </c>
       <c r="F64">
-        <v>14.66</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1525</v>
+        <v>0.2424</v>
       </c>
       <c r="C65" s="2">
-        <v>0.52170000000000005</v>
+        <v>0.63639999999999997</v>
       </c>
       <c r="D65">
-        <v>0.57140000000000002</v>
+        <v>0.66659999999999997</v>
       </c>
       <c r="E65" s="4">
-        <v>0.03</v>
+        <v>0.15</v>
       </c>
       <c r="F65">
-        <v>7.41</v>
+        <v>13.53</v>
       </c>
       <c r="G65">
         <v>0.5</v>
       </c>
       <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
         <v>0.25</v>
-      </c>
-      <c r="I65">
-        <v>0.375</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1741</v>
+        <v>0.13489999999999999</v>
       </c>
       <c r="C66" s="2">
-        <v>0.33329999999999999</v>
+        <v>0.44440000000000002</v>
       </c>
       <c r="D66">
-        <v>0.42849999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="E66" s="4">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="F66">
-        <v>10.36</v>
+        <v>7.29</v>
       </c>
       <c r="G66">
-        <v>0.625</v>
+        <v>0.3</v>
       </c>
       <c r="H66">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I66">
-        <v>0.56259999999999999</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.186</v>
+        <v>0.1416</v>
       </c>
       <c r="C67" s="2">
-        <v>0.66669999999999996</v>
+        <v>0.35709999999999997</v>
       </c>
       <c r="D67">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="E67" s="4">
-        <v>0.17</v>
+        <v>0.31</v>
       </c>
       <c r="F67">
-        <v>10.130000000000001</v>
+        <v>6.18</v>
       </c>
       <c r="G67">
-        <v>0.3</v>
+        <v>0.1666</v>
       </c>
       <c r="H67">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>0.25</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2424</v>
+        <v>0.1142</v>
       </c>
       <c r="C68" s="2">
-        <v>0.63639999999999997</v>
+        <v>0.20369999999999999</v>
       </c>
       <c r="D68">
-        <v>0.66659999999999997</v>
+        <v>0.75</v>
       </c>
       <c r="E68" s="4">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="F68">
-        <v>13.53</v>
+        <v>5.39</v>
       </c>
       <c r="G68">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69">
-        <v>0.13489999999999999</v>
-      </c>
-      <c r="C69" s="2">
-        <v>0.44440000000000002</v>
-      </c>
-      <c r="D69">
-        <v>0.6</v>
-      </c>
-      <c r="E69" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="F69">
-        <v>7.29</v>
-      </c>
-      <c r="G69">
-        <v>0.3</v>
-      </c>
-      <c r="H69">
-        <v>0.2</v>
-      </c>
-      <c r="I69">
-        <v>0.25</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" t="s">
-        <v>70</v>
+      <c r="A70" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="B70">
-        <v>0.1416</v>
+        <f>SUM(B3:B69)/68</f>
+        <v>0.14609852941176471</v>
       </c>
       <c r="C70" s="2">
-        <v>0.35709999999999997</v>
+        <f>SUM(C3:C69)/68</f>
+        <v>0.41514411764705877</v>
       </c>
       <c r="D70">
-        <v>0.4</v>
+        <f>SUM(D3:D69)/68</f>
+        <v>0.47712794117647078</v>
       </c>
       <c r="E70" s="4">
-        <v>0.31</v>
+        <f>SUM(E3:E69)/68</f>
+        <v>0.12308823529411755</v>
       </c>
       <c r="F70">
-        <v>6.18</v>
+        <f>SUM(F3:F69)/68</f>
+        <v>9.09151470588235</v>
       </c>
       <c r="G70">
-        <v>0.1666</v>
+        <f>SUM(G3:G69)/68</f>
+        <v>0.30998397058823529</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <f>SUM(H3:H69)/68</f>
+        <v>0.15616617647058822</v>
       </c>
       <c r="I70">
-        <v>8.3299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71">
-        <v>0.1142</v>
-      </c>
-      <c r="C71" s="2">
-        <v>0.20369999999999999</v>
-      </c>
-      <c r="D71">
-        <v>0.75</v>
-      </c>
-      <c r="E71" s="4">
-        <v>0.09</v>
-      </c>
-      <c r="F71">
-        <v>5.39</v>
-      </c>
-      <c r="G71">
-        <v>0.375</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>0.1875</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B74">
-        <f t="shared" ref="B74:I74" si="0">SUM(B3:B73)/68</f>
-        <v>0.14609852941176471</v>
-      </c>
-      <c r="C74" s="2">
-        <f t="shared" si="0"/>
-        <v>0.41514411764705877</v>
-      </c>
-      <c r="D74">
-        <f t="shared" si="0"/>
-        <v>0.47712794117647078</v>
-      </c>
-      <c r="E74" s="4">
-        <f t="shared" si="0"/>
-        <v>0.12308823529411755</v>
-      </c>
-      <c r="F74">
-        <f t="shared" si="0"/>
-        <v>9.09151470588235</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="0"/>
-        <v>0.30998397058823529</v>
-      </c>
-      <c r="H74">
-        <f t="shared" si="0"/>
-        <v>0.15616617647058822</v>
-      </c>
-      <c r="I74">
-        <f t="shared" si="0"/>
+        <f>SUM(I3:I69)/68</f>
         <v>0.24654558823529424</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="I75" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2727,7 +2749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
